--- a/analytics/20191103/DFW/DFW20191103_Analysis.xlsx
+++ b/analytics/20191103/DFW/DFW20191103_Analysis.xlsx
@@ -10,13 +10,14 @@
     <sheet name="dev-fused-02" sheetId="1" r:id="rId1"/>
     <sheet name="prod-fused-04" sheetId="2" r:id="rId2"/>
     <sheet name="prod-fused-06" sheetId="3" r:id="rId3"/>
+    <sheet name="Analysis" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="117">
   <si>
     <t>flightid</t>
   </si>
@@ -334,6 +335,39 @@
   </si>
   <si>
     <t>2019-11-03 02:00:01-05</t>
+  </si>
+  <si>
+    <t>shown</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>missed</t>
+  </si>
+  <si>
+    <t>missot</t>
+  </si>
+  <si>
+    <t>ot_acc</t>
+  </si>
+  <si>
+    <t>det_acc</t>
+  </si>
+  <si>
+    <t>server</t>
+  </si>
+  <si>
+    <t>server2</t>
+  </si>
+  <si>
+    <t>server4</t>
+  </si>
+  <si>
+    <t>server6</t>
   </si>
 </sst>
 </file>
@@ -1521,4 +1555,130 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>-233.33</v>
+      </c>
+      <c r="H2">
+        <v>-200</v>
+      </c>
+      <c r="I2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>-33.33</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>-33.33</v>
+      </c>
+      <c r="H4">
+        <v>-33.33</v>
+      </c>
+      <c r="I4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>